--- a/tests/test_xls/test_templates/test_append/expected_result.xlsx
+++ b/tests/test_xls/test_templates/test_append/expected_result.xlsx
@@ -484,7 +484,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -504,7 +504,7 @@
     <col width="20" customWidth="1" min="7" max="7"/>
     <col width="10" customWidth="1" min="8" max="8"/>
     <col width="16" customWidth="1" min="9" max="9"/>
-    <col width="20" customWidth="1" min="10" max="10"/>
+    <col width="23" customWidth="1" min="10" max="10"/>
     <col width="5" customWidth="1" min="11" max="11"/>
     <col width="4" customWidth="1" min="12" max="12"/>
   </cols>
@@ -586,7 +586,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Neighborhood Market</t>
+          <t>Kroger</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -596,11 +596,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Farmer's Market</t>
+          <t>Grocery Store</t>
         </is>
       </c>
       <c r="H2" s="3" t="n">
-        <v>-707.85</v>
+        <v>-568.61</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -621,30 +621,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Checking</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>United States Treasury</t>
+          <t>Kroger</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Taxes</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Federal Taxes</t>
+          <t>Grocery Store</t>
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>-789.5700000000001</v>
+        <v>-42.48</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Discretionary</t>
+          <t>Essential</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -657,7 +657,7 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" s="2" t="n">
-        <v>43832</v>
+        <v>43831</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -666,25 +666,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Neighborhood Market</t>
+          <t>Walmart</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Shopping</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Farmer's Market</t>
+          <t>Household</t>
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>-516.76</v>
+        <v>-871.16</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Essential</t>
+          <t>Discretionary</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -701,30 +701,30 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Kroger</t>
+          <t>Target</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Shopping</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Grocery Store</t>
+          <t>Household</t>
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>-441.36</v>
+        <v>-456.63</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Essential</t>
+          <t>Discretionary</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -737,11 +737,11 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" s="2" t="n">
-        <v>43832</v>
+        <v>43833</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -760,7 +760,7 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>-753.03</v>
+        <v>-956.04</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -777,26 +777,30 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" s="2" t="n">
-        <v>43833</v>
+        <v>43834</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Wendy's</t>
+          <t>Walgreens</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dining Out</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
+          <t>Pharmacy</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
       <c r="H7" s="3" t="n">
-        <v>-223.78</v>
+        <v>-847.86</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -813,26 +817,30 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" s="2" t="n">
-        <v>43833</v>
+        <v>43834</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Checking</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Highland Apartments</t>
+          <t>CVS</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Rent</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
+          <t>Pharmacy</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>OTC</t>
+        </is>
+      </c>
       <c r="H8" s="3" t="n">
-        <v>-201.51</v>
+        <v>-42.93</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -849,30 +857,26 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" s="2" t="n">
-        <v>43834</v>
+        <v>43835</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Checking</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>City of San Francisco</t>
+          <t>McDonald's</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Taxes</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Local Taxes</t>
-        </is>
-      </c>
+          <t>Dining Out</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" s="3" t="n">
-        <v>-851.7</v>
+        <v>-20.23</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -898,25 +902,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Neighborhood Market</t>
+          <t>Walgreens</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Pharmacy</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Farmer's Market</t>
+          <t>General</t>
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>-183.84</v>
+        <v>-756.49</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Essential</t>
+          <t>Discretionary</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -929,7 +933,7 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" s="2" t="n">
-        <v>43835</v>
+        <v>43836</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -938,17 +942,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>The Vet</t>
+          <t>Wendy's</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Pets</t>
+          <t>Dining Out</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" s="3" t="n">
-        <v>-250.46</v>
+        <v>-727.4299999999999</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -965,30 +969,26 @@
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" s="2" t="n">
-        <v>43835</v>
+        <v>43837</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>The Vet</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Shopping</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Household</t>
-        </is>
-      </c>
+          <t>Pets</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" s="3" t="n">
-        <v>-464.14</v>
+        <v>-302.9</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" s="2" t="n">
-        <v>43837</v>
+        <v>43839</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>-715.5700000000001</v>
+        <v>-661.4400000000001</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" s="2" t="n">
-        <v>43838</v>
+        <v>43841</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1054,24 +1054,32 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>The Vet</t>
+          <t>Walmart</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Pets</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Household</t>
+        </is>
+      </c>
       <c r="H14" s="3" t="n">
-        <v>-489.86</v>
+        <v>475.08</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
           <t>Discretionary</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Refund of 10/16/2019</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
     </row>
@@ -1081,30 +1089,26 @@
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" s="2" t="n">
-        <v>43839</v>
+        <v>43842</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>McDonald's</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Shopping</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Online</t>
-        </is>
-      </c>
+          <t>Dining Out</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" s="3" t="n">
-        <v>-948.4</v>
+        <v>-529.1799999999999</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1121,7 +1125,7 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" s="2" t="n">
-        <v>43841</v>
+        <v>43843</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1130,25 +1134,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Walmart</t>
+          <t>Kroger</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Shopping</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Household</t>
+          <t>Grocery Store</t>
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>-981.38</v>
+        <v>-122.48</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Discretionary</t>
+          <t>Essential</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -1170,17 +1174,21 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>McDonald's</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Dining Out</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
       <c r="H17" s="3" t="n">
-        <v>-65.06999999999999</v>
+        <v>-994.4</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1197,7 +1205,7 @@
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" s="2" t="n">
-        <v>43843</v>
+        <v>43844</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1206,17 +1214,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Wendy's</t>
+          <t>The Vet</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Dining Out</t>
+          <t>Pets</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" s="3" t="n">
-        <v>-901.79</v>
+        <v>-757.3200000000001</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1237,30 +1245,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Neighborhood Market</t>
+          <t>Walgreens</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Pharmacy</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Farmer's Market</t>
+          <t>General</t>
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>-224.97</v>
+        <v>-999.09</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Essential</t>
+          <t>Discretionary</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -1273,7 +1281,7 @@
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" s="2" t="n">
-        <v>43844</v>
+        <v>43845</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1282,21 +1290,17 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Walgreens</t>
+          <t>McDonald's</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Pharmacy</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
+          <t>Dining Out</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" s="3" t="n">
-        <v>-292.06</v>
+        <v>-951.61</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1313,7 +1317,7 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" s="2" t="n">
-        <v>43844</v>
+        <v>43845</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1322,7 +1326,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>City of San Francisco</t>
+          <t>United States Treasury</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1332,11 +1336,11 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Local Taxes</t>
+          <t>Federal Taxes</t>
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>-646.35</v>
+        <v>-829.8200000000001</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1353,30 +1357,30 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" s="2" t="n">
-        <v>43846</v>
+        <v>43845</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Checking</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>McDonald's</t>
+          <t>Local Utility Co</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Dining Out</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" s="3" t="n">
-        <v>-259</v>
+        <v>-251.71</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Discretionary</t>
+          <t>Essential</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -1389,7 +1393,7 @@
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" s="2" t="n">
-        <v>43846</v>
+        <v>43847</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1412,7 +1416,7 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>-66.34</v>
+        <v>-601.01</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1429,16 +1433,16 @@
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" s="2" t="n">
-        <v>43846</v>
+        <v>43847</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>CVS</t>
+          <t>Walgreens</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1448,11 +1452,11 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>OTC</t>
+          <t>General</t>
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>-620.11</v>
+        <v>-887.4</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1469,34 +1473,34 @@
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" s="2" t="n">
-        <v>43846</v>
+        <v>43848</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Checking</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>United States Treasury</t>
+          <t>Kroger</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Taxes</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Federal Taxes</t>
+          <t>Grocery Store</t>
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>-966.02</v>
+        <v>-719.6900000000001</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Discretionary</t>
+          <t>Essential</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -1509,37 +1513,37 @@
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" s="2" t="n">
-        <v>43847</v>
+        <v>43848</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Checking</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>McDonald's</t>
+          <t>United States Treasury</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Dining Out</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
+          <t>Taxes</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Federal Taxes</t>
+        </is>
+      </c>
       <c r="H26" s="3" t="n">
-        <v>-594.21</v>
+        <v>-697.78</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
           <t>Discretionary</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Memo 3</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
     </row>
@@ -1549,26 +1553,26 @@
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" s="2" t="n">
-        <v>43848</v>
+        <v>43849</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Checking</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Highland Apartments</t>
+          <t>Wendy's</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Rent</t>
+          <t>Dining Out</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" s="3" t="n">
-        <v>-677.36</v>
+        <v>-877.23</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1585,34 +1589,34 @@
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" s="2" t="n">
-        <v>43848</v>
+        <v>43850</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>Neighborhood Market</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Shopping</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Household</t>
+          <t>Farmer's Market</t>
         </is>
       </c>
       <c r="H28" s="3" t="n">
-        <v>-717.95</v>
+        <v>-458.4</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Discretionary</t>
+          <t>Essential</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
@@ -1625,26 +1629,30 @@
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" s="2" t="n">
-        <v>43849</v>
+        <v>43850</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>The Vet</t>
+          <t>Walgreens</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Pets</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr"/>
+          <t>Pharmacy</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
       <c r="H29" s="3" t="n">
-        <v>-115.28</v>
+        <v>-131.32</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -1661,7 +1669,7 @@
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" s="2" t="n">
-        <v>43849</v>
+        <v>43852</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1684,7 +1692,7 @@
         </is>
       </c>
       <c r="H30" s="3" t="n">
-        <v>-844.6799999999999</v>
+        <v>-774.45</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -1701,30 +1709,30 @@
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" s="2" t="n">
-        <v>43849</v>
+        <v>43853</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Walgreens</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Shopping</t>
+          <t>Pharmacy</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>General</t>
         </is>
       </c>
       <c r="H31" s="3" t="n">
-        <v>-898.54</v>
+        <v>-318.22</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -1741,30 +1749,34 @@
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" s="2" t="n">
-        <v>43850</v>
+        <v>43855</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Wendy's</t>
+          <t>Neighborhood Market</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Dining Out</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr"/>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Farmer's Market</t>
+        </is>
+      </c>
       <c r="H32" s="3" t="n">
-        <v>-853.9</v>
+        <v>-939.53</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Discretionary</t>
+          <t>Essential</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -1777,26 +1789,30 @@
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" s="2" t="n">
-        <v>43850</v>
+        <v>43857</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>The Vet</t>
+          <t>Walmart</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Pets</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr"/>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Household</t>
+        </is>
+      </c>
       <c r="H33" s="3" t="n">
-        <v>-772.64</v>
+        <v>-499.48</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -1813,34 +1829,34 @@
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" s="2" t="n">
-        <v>43851</v>
+        <v>43858</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Checking</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>United States Treasury</t>
+          <t>Kroger</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Taxes</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Federal Taxes</t>
+          <t>Grocery Store</t>
         </is>
       </c>
       <c r="H34" s="3" t="n">
-        <v>-732.08</v>
+        <v>-347.06</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Discretionary</t>
+          <t>Essential</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -1853,34 +1869,34 @@
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" s="2" t="n">
-        <v>43852</v>
+        <v>43858</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Walgreens</t>
+          <t>Kroger</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Pharmacy</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Grocery Store</t>
         </is>
       </c>
       <c r="H35" s="3" t="n">
-        <v>-145.04</v>
+        <v>-356.99</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Discretionary</t>
+          <t>Essential</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -1893,30 +1909,34 @@
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" s="2" t="n">
-        <v>43852</v>
+        <v>43858</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Checking</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Local Utility Co</t>
+          <t>Target</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Utilities</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr"/>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Household</t>
+        </is>
+      </c>
       <c r="H36" s="3" t="n">
-        <v>-331.58</v>
+        <v>-876.79</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Essential</t>
+          <t>Discretionary</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -1929,34 +1949,30 @@
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" s="2" t="n">
-        <v>43853</v>
+        <v>43858</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Checking</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Walgreens</t>
+          <t>Local Utility Co</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Pharmacy</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
+          <t>Utilities</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" s="3" t="n">
-        <v>-817.89</v>
+        <v>-860.85</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Discretionary</t>
+          <t>Essential</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -1969,26 +1985,26 @@
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" s="2" t="n">
-        <v>43854</v>
+        <v>43859</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>McDonald's</t>
+          <t>The Vet</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Dining Out</t>
+          <t>Pets</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" s="3" t="n">
-        <v>-356.15</v>
+        <v>-298.2</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -2005,7 +2021,7 @@
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" s="2" t="n">
-        <v>43854</v>
+        <v>43860</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2014,25 +2030,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>CVS</t>
+          <t>Neighborhood Market</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Pharmacy</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>OTC</t>
+          <t>Farmer's Market</t>
         </is>
       </c>
       <c r="H39" s="3" t="n">
-        <v>-564.01</v>
+        <v>-670.09</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Discretionary</t>
+          <t>Essential</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
@@ -2045,26 +2061,30 @@
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" s="2" t="n">
-        <v>43856</v>
+        <v>43861</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Checking</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Wendy's</t>
+          <t>City of San Francisco</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Dining Out</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr"/>
+          <t>Taxes</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Local Taxes</t>
+        </is>
+      </c>
       <c r="H40" s="3" t="n">
-        <v>-373.26</v>
+        <v>-841.2</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -2074,198 +2094,6 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>40</v>
-      </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" s="2" t="n">
-        <v>43857</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Visa</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Neighborhood Market</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Groceries</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>Farmer's Market</t>
-        </is>
-      </c>
-      <c r="H41" s="3" t="n">
-        <v>-682.79</v>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>Essential</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>41</v>
-      </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" s="2" t="n">
-        <v>43857</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Visa</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Target</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Shopping</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Household</t>
-        </is>
-      </c>
-      <c r="H42" s="3" t="n">
-        <v>-156.93</v>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>Discretionary</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>42</v>
-      </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" s="2" t="n">
-        <v>43860</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Mastercard</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Kroger</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Groceries</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Grocery Store</t>
-        </is>
-      </c>
-      <c r="H43" s="3" t="n">
-        <v>-798.71</v>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>Essential</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>43</v>
-      </c>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" s="2" t="n">
-        <v>43860</v>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Checking</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Local Utility Co</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Utilities</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" s="3" t="n">
-        <v>-634.36</v>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>Essential</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>44</v>
-      </c>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" s="2" t="n">
-        <v>43861</v>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Visa</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>The Vet</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Pets</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" s="3" t="n">
-        <v>-851.37</v>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>Discretionary</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
